--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1897.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1897.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.085746911954992</v>
+        <v>1.321162700653076</v>
       </c>
       <c r="B1">
-        <v>3.015423302708348</v>
+        <v>2.163686037063599</v>
       </c>
       <c r="C1">
-        <v>3.51358818341454</v>
+        <v>2.772473812103271</v>
       </c>
       <c r="D1">
-        <v>2.680411005162446</v>
+        <v>2.68518328666687</v>
       </c>
       <c r="E1">
-        <v>1.224332287609242</v>
+        <v>0.9968612790107727</v>
       </c>
     </row>
   </sheetData>
